--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5076A-B013-4494-944B-F9F718676474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81CE08-445E-46E0-9D7E-390C7F65B7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>TO DO</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>POLSKIE ZNAKI W JSON REQUESTACH I ODPOWIEDZIACH NA REQUESTY</t>
+  </si>
+  <si>
+    <t>CO TO HEADERY W REST API??? Czy jest to związane z sesjami i wieloma uzytkownikami używającymi REST API???</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,11 +257,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -273,6 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="202.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,6 +1140,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
     <sortCondition descending="1" ref="D2:D33"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81CE08-445E-46E0-9D7E-390C7F65B7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F5EBE-85CD-4415-ACBE-9B05FF4263CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>TO DO</t>
   </si>
@@ -53,81 +53,27 @@
     <t>x</t>
   </si>
   <si>
-    <t>Swagger – Automatyczna dokumentacja? Czy chodzi o to aby miec gotowiec do inzynierki?</t>
-  </si>
-  <si>
-    <t>Dane – poprzednie okresy czasowe</t>
-  </si>
-  <si>
     <t>Opatentować przekazywanie null’i, aby nie braly udziału w zapytaniach?</t>
   </si>
   <si>
-    <t>Napisać jeden/cztery endpointy ktore przyjmuja zapytanie? Jezeli tak to w jakim formacie?</t>
-  </si>
-  <si>
     <t>Opanować większą ilość błedów</t>
   </si>
   <si>
-    <t>Czy coś poza swaggerem, postmanem, restapi, SQL nalezy użyć, aby inż na ‘4’ zrobić?</t>
-  </si>
-  <si>
     <t>Potestować wszystkie endpointy na wszelkie sposoby</t>
   </si>
   <si>
-    <t>Jakie zrzuty ekranu wrzucić do pracy dyplomowej?</t>
-  </si>
-  <si>
-    <t>Jakie diagramy poza ERD? Skoro będzie dokumentacja restAPI to beda tez przypadki uzycia API, a GUI to dodatek w sumie</t>
-  </si>
-  <si>
-    <t>Czy obecny model bazy danych jest okej? Czy może utworzyć wszedzie sztuczne klucze aby API lepiej działało? Wolałbym tego uniknąć</t>
-  </si>
-  <si>
-    <t>Co można zawrzeć we wstępie, co w części głównej, czy z tej pracy wynikają jakieś wnioski?</t>
-  </si>
-  <si>
-    <t>Czy kody i wszystko ma wyladowac na GitHubie?</t>
-  </si>
-  <si>
-    <t>Co wrzuca się do ASAP’u?</t>
-  </si>
-  <si>
-    <t>W jaki sposób będę mógł przekazać ‘dzialający’ projekt promotorowi?</t>
-  </si>
-  <si>
-    <t>Co z sesjami uzytkownikow? Cache’owanie danych o logowaniu, każdy użytkownik API osobny obiekt pyODBC connection? Connection.close()? Czy zrobić endpointa /logout z (GET?) aby uzytkownik mógł zamknąć połączenie?</t>
-  </si>
-  <si>
-    <t>Czy DBReader dla GUI i APIJSON dla API jest wystarczajace?</t>
-  </si>
-  <si>
     <t>Czy dopisać jakieś widoki, np na konkretną datę wypisujące dane o gminie, wojewodztwie czy powiecie? Jeżeli tak, to mają być dla GUI czy API?</t>
   </si>
   <si>
     <t>czy to okej, że użytkownik podaje ID encji w insercie?</t>
   </si>
   <si>
-    <t>Czy REST API może operować w runtime na bazie danych? Czy musi tworzyć jakieś obiekty i na nich operować?</t>
-  </si>
-  <si>
-    <t>Czy skrypt tworzący i populujący bazę danych też ma się znaleźć na repo / ASAP?</t>
-  </si>
-  <si>
-    <t>Jakie części inżynierki idą do recenzentów, kod również?</t>
-  </si>
-  <si>
     <t>Co z testami? Jakim programem? Czy są konieczne? Jak je napisać? W jakimś programie/języku? Czy tylko jednostkowe czy jeszcze jakies?</t>
   </si>
   <si>
     <t>Dodać request redirect zamiast uzywac redirectujacych htmli</t>
   </si>
   <si>
-    <t>Czy mogą pozostać printy w aplikacji?</t>
-  </si>
-  <si>
-    <t>Czy endpointy mogą być hybrydowe? Update po kluczu w endpoincie, a wartości już w ciele http jako JSON?</t>
-  </si>
-  <si>
     <t>Czy koniecznie podzielić na jakies pliki glowny plik .py?</t>
   </si>
   <si>
@@ -135,9 +81,6 @@
   </si>
   <si>
     <t>PRIORITY/ORDER</t>
-  </si>
-  <si>
-    <t>Czy api musi ogarniac sytuacje gdy update jest bez jakiejs kolumny w set w JSON? Czy można to opędzić przy pomocy nulla i wtedy nie generować seta dla tej kolumny?</t>
   </si>
   <si>
     <t>Czy API musi miec możliwość pisania wielce skomplikowanych zapytań, orderowania w selectach, podzapytań, joinów itd, czy wystarczą proste select *, prosty insert, update po kluczach z wszystkimi wartościami, delete po kluczu?</t>
@@ -165,18 +108,6 @@
     <t>API</t>
   </si>
   <si>
-    <t>SWAGGER</t>
-  </si>
-  <si>
-    <t>BAZA</t>
-  </si>
-  <si>
-    <t>OGOLNIE</t>
-  </si>
-  <si>
-    <t>PRACA DYPLOMOWA</t>
-  </si>
-  <si>
     <t>API / BAZA</t>
   </si>
   <si>
@@ -189,13 +120,7 @@
     <t>POSTMAN</t>
   </si>
   <si>
-    <t>Czy PostMana można wykorzystać do czegoś jeszcze poza wysyłanie http calli?</t>
-  </si>
-  <si>
     <t>POLSKIE ZNAKI W JSON REQUESTACH I ODPOWIEDZIACH NA REQUESTY</t>
-  </si>
-  <si>
-    <t>CO TO HEADERY W REST API??? Czy jest to związane z sesjami i wieloma uzytkownikami używającymi REST API???</t>
   </si>
 </sst>
 </file>
@@ -234,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,22 +182,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -287,10 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="202.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="209.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="157.42578125" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
@@ -622,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -631,15 +541,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -649,67 +559,67 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,446 +627,126 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="4">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="7">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>38</v>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
-    <sortCondition descending="1" ref="D2:D33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
+    <sortCondition descending="1" ref="D2:D32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F5EBE-85CD-4415-ACBE-9B05FF4263CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7AC9A8-E69F-47E4-B8B9-F4E7EC8C1544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
+    <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>TO DO</t>
   </si>
@@ -53,37 +53,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>Opatentować przekazywanie null’i, aby nie braly udziału w zapytaniach?</t>
-  </si>
-  <si>
     <t>Opanować większą ilość błedów</t>
   </si>
   <si>
     <t>Potestować wszystkie endpointy na wszelkie sposoby</t>
   </si>
   <si>
-    <t>Czy dopisać jakieś widoki, np na konkretną datę wypisujące dane o gminie, wojewodztwie czy powiecie? Jeżeli tak, to mają być dla GUI czy API?</t>
-  </si>
-  <si>
-    <t>czy to okej, że użytkownik podaje ID encji w insercie?</t>
-  </si>
-  <si>
-    <t>Co z testami? Jakim programem? Czy są konieczne? Jak je napisać? W jakimś programie/języku? Czy tylko jednostkowe czy jeszcze jakies?</t>
-  </si>
-  <si>
-    <t>Dodać request redirect zamiast uzywac redirectujacych htmli</t>
-  </si>
-  <si>
     <t>Czy koniecznie podzielić na jakies pliki glowny plik .py?</t>
   </si>
   <si>
-    <t>Czy wszystkie endpointy posiadaja wystarczajacą funkcjonalność?</t>
-  </si>
-  <si>
     <t>PRIORITY/ORDER</t>
-  </si>
-  <si>
-    <t>Czy API musi miec możliwość pisania wielce skomplikowanych zapytań, orderowania w selectach, podzapytań, joinów itd, czy wystarczą proste select *, prosty insert, update po kluczach z wszystkimi wartościami, delete po kluczu?</t>
   </si>
   <si>
     <t>TEMATYKA</t>
@@ -108,26 +87,26 @@
     <t>API</t>
   </si>
   <si>
-    <t>API / BAZA</t>
-  </si>
-  <si>
-    <t>TESTY</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>POSTMAN</t>
-  </si>
-  <si>
-    <t>POLSKIE ZNAKI W JSON REQUESTACH I ODPOWIEDZIACH NA REQUESTY</t>
+    <t>Dopisać ciekawsze selecty w gui i api</t>
+  </si>
+  <si>
+    <t>TO_ASK</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>LATER</t>
+  </si>
+  <si>
+    <t>autoincrement po wykonianiu populacji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +118,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -159,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +170,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -201,6 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="202.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +538,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -541,30 +547,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -574,12 +574,12 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -589,164 +589,83 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
-    <sortCondition descending="1" ref="D2:D32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D23">
+    <sortCondition descending="1" ref="D3:D23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7AC9A8-E69F-47E4-B8B9-F4E7EC8C1544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7297EB-1D9F-4680-8280-78E0FF6E25AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,91 +33,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>TO DO</t>
-  </si>
-  <si>
-    <t>TO ASK</t>
-  </si>
-  <si>
-    <t>Statusy w return – co w momencie gdy zapytania nie udalo sie wykonac, bo przyszlo zle napisane, a co gdy baza na to nie pozwala (FK itd), czy zwracać informacje o ilości przetworzonych rekordów? Jeżeli tak to jak?</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Opanować większą ilość błedów</t>
   </si>
   <si>
     <t>Potestować wszystkie endpointy na wszelkie sposoby</t>
   </si>
   <si>
-    <t>Czy koniecznie podzielić na jakies pliki glowny plik .py?</t>
-  </si>
-  <si>
-    <t>PRIORITY/ORDER</t>
-  </si>
-  <si>
-    <t>TEMATYKA</t>
-  </si>
-  <si>
-    <r>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agadnienie</t>
-    </r>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Dopisać ciekawsze selecty w gui i api</t>
   </si>
   <si>
-    <t>TO_ASK</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>LATER</t>
-  </si>
-  <si>
     <t>autoincrement po wykonianiu populacji</t>
+  </si>
+  <si>
+    <t>CURRENTLY</t>
+  </si>
+  <si>
+    <t>TO_DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">podzielić na pliki </t>
+  </si>
+  <si>
+    <t>Statusy w return</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>Inżynierka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -147,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,43 +128,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,152 +454,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="202.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="157.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D23">
-    <sortCondition descending="1" ref="D3:D23"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7297EB-1D9F-4680-8280-78E0FF6E25AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942A14F-ED45-43D9-9288-35DED4CD1808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
+    <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,33 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
   <si>
-    <t>Opanować większą ilość błedów</t>
-  </si>
-  <si>
     <t>Potestować wszystkie endpointy na wszelkie sposoby</t>
   </si>
   <si>
-    <t>Dopisać ciekawsze selecty w gui i api</t>
-  </si>
-  <si>
-    <t>autoincrement po wykonianiu populacji</t>
-  </si>
-  <si>
-    <t>CURRENTLY</t>
-  </si>
-  <si>
     <t>TO_DO</t>
   </si>
   <si>
     <t xml:space="preserve">podzielić na pliki </t>
-  </si>
-  <si>
-    <t>Statusy w return</t>
   </si>
   <si>
     <t>Swagger</t>
@@ -454,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -482,42 +467,16 @@
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942A14F-ED45-43D9-9288-35DED4CD1808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB457E-849D-4EAB-A0AE-FA1BE6A4F927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
   <si>
-    <t>Potestować wszystkie endpointy na wszelkie sposoby</t>
-  </si>
-  <si>
     <t>TO_DO</t>
   </si>
   <si>
@@ -51,6 +48,15 @@
   </si>
   <si>
     <t>Inżynierka</t>
+  </si>
+  <si>
+    <t>TO_ASK</t>
+  </si>
+  <si>
+    <t>GminaRelacja - zmienić na EFF_DT?</t>
+  </si>
+  <si>
+    <t>Z powodu GminaRelacja update kolumny start_date który jest jednocześnie kluczem główny zaczyna wywalać z powodu tabeli GminaRelacja</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F3:F4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,33 +458,50 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB457E-849D-4EAB-A0AE-FA1BE6A4F927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42FBBA-8D3A-4D65-BB03-1DACEBDE83CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
@@ -47,16 +47,7 @@
     <t>Swagger</t>
   </si>
   <si>
-    <t>Inżynierka</t>
-  </si>
-  <si>
-    <t>TO_ASK</t>
-  </si>
-  <si>
-    <t>GminaRelacja - zmienić na EFF_DT?</t>
-  </si>
-  <si>
-    <t>Z powodu GminaRelacja update kolumny start_date który jest jednocześnie kluczem główny zaczyna wywalać z powodu tabeli GminaRelacja</t>
+    <t>Inżynierka (opisac dane, potem model, znowu dane, i tabele GminaRelacja i jej triggery i czemu triggery)</t>
   </si>
 </sst>
 </file>
@@ -445,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -481,28 +472,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42FBBA-8D3A-4D65-BB03-1DACEBDE83CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108D1F4-0480-4E7C-B925-BF138FD9148C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Inżynierka (opisac dane, potem model, znowu dane, i tabele GminaRelacja i jej triggery i czemu triggery)</t>
+  </si>
+  <si>
+    <t>TO_ASK</t>
+  </si>
+  <si>
+    <t>Czy pasowałoby utworzyć partycje na tabelach głównych oraz relacyjnych na poszczególne okresy czasowe? Czasy zapytań i operacji powinny ulec poprawie</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +478,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108D1F4-0480-4E7C-B925-BF138FD9148C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8607A2-214C-42C1-8187-E9E292147244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32955" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Potworzyć gotowe zbiory call’i w PostManie</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">podzielić na pliki </t>
   </si>
   <si>
-    <t>Swagger</t>
-  </si>
-  <si>
     <t>Inżynierka (opisac dane, potem model, znowu dane, i tabele GminaRelacja i jej triggery i czemu triggery)</t>
   </si>
   <si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>Czy pasowałoby utworzyć partycje na tabelach głównych oraz relacyjnych na poszczególne okresy czasowe? Czasy zapytań i operacji powinny ulec poprawie</t>
+  </si>
+  <si>
+    <t>wspomnieć o case sensitivity endpointów w inżynierce</t>
+  </si>
+  <si>
+    <t>wspomniec o niedzialajacym werkzeugu</t>
   </si>
 </sst>
 </file>
@@ -442,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="49.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -465,28 +468,33 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pytania do Promotora.xlsx
+++ b/Pytania do Promotora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zbyszard v.2\Desktop\inzynier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8607A2-214C-42C1-8187-E9E292147244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75380B91-5734-4241-9377-869766399677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C69576-D033-451C-B68A-71E4F35EE0CC}"/>
   </bookViews>
@@ -33,24 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Potworzyć gotowe zbiory call’i w PostManie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TO_DO</t>
   </si>
   <si>
-    <t xml:space="preserve">podzielić na pliki </t>
-  </si>
-  <si>
     <t>Inżynierka (opisac dane, potem model, znowu dane, i tabele GminaRelacja i jej triggery i czemu triggery)</t>
-  </si>
-  <si>
-    <t>TO_ASK</t>
-  </si>
-  <si>
-    <t>Czy pasowałoby utworzyć partycje na tabelach głównych oraz relacyjnych na poszczególne okresy czasowe? Czasy zapytań i operacji powinny ulec poprawie</t>
   </si>
   <si>
     <t>wspomnieć o case sensitivity endpointów w inżynierce</t>
@@ -445,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E66B81-FB29-4C52-8B6D-AE386FFB343D}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,43 +446,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
